--- a/Ch_14/data14-41.xlsx
+++ b/Ch_14/data14-41.xlsx
@@ -1,28 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliaksandr_Snapko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vafa.saboorideilami/Documents/5504/Ch_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A0C646-9917-4C8E-81A7-0915A9C1EC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F60F4F0-25A6-1548-A974-3E5F8A933414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="302" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ANOVA</t>
   </si>
@@ -67,13 +81,19 @@
   </si>
   <si>
     <t>P-value</t>
+  </si>
+  <si>
+    <t>R squared</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -209,8 +229,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +376,24 @@
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -530,17 +577,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -597,6 +652,130 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>595086</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6143625" cy="3381375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image10.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A12247-AE02-E84D-8B11-C08B7285CE9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="595086" y="1973942"/>
+          <a:ext cx="6143625" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>290724</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45904</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1295400" cy="628650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="image16.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA251BDD-AD03-9A46-A743-43AA8948D7EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9310784" y="260121"/>
+          <a:ext cx="1295400" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8572500" cy="7594600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image11.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008B2BB2-B9F6-5E41-84D1-DA4DC635067B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="7594600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -947,21 +1126,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1"/>
+    <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,25 +1154,28 @@
       <c r="E1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -999,11 +1185,24 @@
       <c r="C3">
         <v>1575.76</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="D3" s="7">
+        <f>C3/B3</f>
+        <v>1575.76</v>
+      </c>
+      <c r="E3" s="8">
+        <f>D3/D4</f>
+        <v>36.106089247866187</v>
+      </c>
+      <c r="F3" s="9">
+        <f>_xlfn.F.DIST(E3,1,8,FALSE)</f>
+        <v>2.966499672276859E-5</v>
+      </c>
+      <c r="G3">
+        <f>C3/C5</f>
+        <v>0.81861914904670363</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1013,25 +1212,28 @@
       <c r="C4">
         <v>349.14</v>
       </c>
-      <c r="D4"/>
+      <c r="D4" s="7">
+        <f>C4/B4</f>
+        <v>43.642499999999998</v>
+      </c>
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1924.9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -1039,22 +1241,28 @@
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1064,21 +1272,43 @@
       <c r="C8">
         <v>0.93610000000000004</v>
       </c>
-      <c r="D8"/>
+      <c r="D8">
+        <f>B8/C8</f>
+        <v>6.5262258305736571</v>
+      </c>
       <c r="E8"/>
+      <c r="G8" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D8)</f>
+        <v>=B8/C8</v>
+      </c>
+      <c r="H8"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.89510000000000001</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.14899999999999999</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="3">
+        <f>B9/C9</f>
+        <v>6.0073825503355707</v>
+      </c>
+      <c r="E9" s="3">
+        <f>TDIST(D9,8,2)</f>
+        <v>3.2074464893991312E-4</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D9)</f>
+        <v>=B9/C9</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E9)</f>
+        <v>=TDIST(D9,8,2)</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1087,16 +1317,30 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F32AF20-0F03-D549-9C33-50FE428F5495}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1107,13 +1351,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
